--- a/results/figureA1_police_report_primary.xlsx
+++ b/results/figureA1_police_report_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -34,67 +34,64 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(1.35)</t>
-  </si>
-  <si>
-    <t>(1.17)</t>
-  </si>
-  <si>
-    <t>(0.9)</t>
-  </si>
-  <si>
-    <t>(0.66)</t>
-  </si>
-  <si>
-    <t>(1.45)</t>
-  </si>
-  <si>
-    <t>(0.96)</t>
-  </si>
-  <si>
-    <t>(1.25)</t>
-  </si>
-  <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(1.43)</t>
+    <t>(1.39)</t>
+  </si>
+  <si>
+    <t>(1.12)</t>
+  </si>
+  <si>
+    <t>(1.0)</t>
+  </si>
+  <si>
+    <t>(0.8)</t>
+  </si>
+  <si>
+    <t>(1.68)</t>
+  </si>
+  <si>
+    <t>(1.04)</t>
+  </si>
+  <si>
+    <t>(1.24)</t>
+  </si>
+  <si>
+    <t>(1.44)</t>
   </si>
   <si>
     <t>(0.74)</t>
   </si>
   <si>
-    <t>(1.86)</t>
-  </si>
-  <si>
-    <t>(1.37)</t>
-  </si>
-  <si>
-    <t>(1.9)</t>
-  </si>
-  <si>
-    <t>(1.4)</t>
-  </si>
-  <si>
-    <t>(1.48)</t>
-  </si>
-  <si>
-    <t>(1.24)</t>
-  </si>
-  <si>
-    <t>(1.53)</t>
-  </si>
-  <si>
-    <t>(1.01)</t>
-  </si>
-  <si>
-    <t>(1.3)</t>
-  </si>
-  <si>
-    <t>(1.06)</t>
-  </si>
-  <si>
-    <t>(1.99)</t>
+    <t>(1.78)</t>
+  </si>
+  <si>
+    <t>(1.32)</t>
+  </si>
+  <si>
+    <t>(1.75)</t>
+  </si>
+  <si>
+    <t>(1.49)</t>
+  </si>
+  <si>
+    <t>(1.34)</t>
+  </si>
+  <si>
+    <t>(1.2)</t>
+  </si>
+  <si>
+    <t>(1.65)</t>
+  </si>
+  <si>
+    <t>(1.05)</t>
+  </si>
+  <si>
+    <t>(1.46)</t>
+  </si>
+  <si>
+    <t>(2.59)</t>
+  </si>
+  <si>
+    <t>(2.2)</t>
   </si>
 </sst>
 </file>
@@ -586,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -659,28 +656,28 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
